--- a/data/142/OSE/Oslo Benchmark Index - Daily.xlsx
+++ b/data/142/OSE/Oslo Benchmark Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JCO2"/>
+  <dimension ref="A1:JCQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34619,15 +34619,25 @@
       </c>
       <c r="JCM1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="JCN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="JCO1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="JCN1" s="1" t="inlineStr">
+      <c r="JCP1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="JCO1" s="1" t="inlineStr">
+      <c r="JCQ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -54684,19 +54694,25 @@
         <v>1261.35</v>
       </c>
       <c r="JCL2" t="n">
-        <v>1269.35</v>
-      </c>
-      <c r="JCM2" t="inlineStr">
+        <v>1269.84</v>
+      </c>
+      <c r="JCM2" t="n">
+        <v>1264.57</v>
+      </c>
+      <c r="JCN2" t="n">
+        <v>1266</v>
+      </c>
+      <c r="JCO2" t="inlineStr">
         <is>
           <t>OSEBX</t>
         </is>
       </c>
-      <c r="JCN2" t="inlineStr">
+      <c r="JCP2" t="inlineStr">
         <is>
           <t>Oslo Benchmark Index, Close Price</t>
         </is>
       </c>
-      <c r="JCO2" t="inlineStr">
+      <c r="JCQ2" t="inlineStr">
         <is>
           <t>Index: 1995.12.29=100</t>
         </is>
